--- a/Training Topics.xlsx
+++ b/Training Topics.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\singirva\Documents\Personal\Trainings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFCDB3B0-212F-0340-8622-4559E7B67477}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21540" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21540" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
   <si>
     <t>About GIT</t>
   </si>
@@ -221,11 +220,56 @@
   <si>
     <t>Date (8:45AM to 9:45AM IST, Everyday)</t>
   </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>SQL Introduction</t>
+  </si>
+  <si>
+    <t>Oracle SQL Developer</t>
+  </si>
+  <si>
+    <t>Oracle Express Edition</t>
+  </si>
+  <si>
+    <t>Creation Connections and setting up SQL Developer</t>
+  </si>
+  <si>
+    <t>Basic SQL Systax - CREATE, SELECT, INSERT, UPDATE &amp; DELETE</t>
+  </si>
+  <si>
+    <t>SELECT Options</t>
+  </si>
+  <si>
+    <t>WHERE Clause</t>
+  </si>
+  <si>
+    <t>ORDER BY and GROUP BY</t>
+  </si>
+  <si>
+    <t>JOINS</t>
+  </si>
+  <si>
+    <t>SEQUENCES, TRIGGERS, Contraints</t>
+  </si>
+  <si>
+    <t>Primary Keys</t>
+  </si>
+  <si>
+    <t>Foreign Keys</t>
+  </si>
+  <si>
+    <t>Sequences</t>
+  </si>
+  <si>
+    <t>Triggers</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
@@ -272,7 +316,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -332,11 +376,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -364,6 +432,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -644,21 +722,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.2890625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.3046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.05078125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -669,14 +747,14 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="11"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -685,28 +763,28 @@
         <v>43451</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -715,56 +793,56 @@
         <v>43451</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -773,56 +851,56 @@
         <v>43452</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="7"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="7"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="7"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -831,63 +909,63 @@
         <v>43452</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="7"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="7"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="7"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="7"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="7"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="7"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C30" s="7"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="11"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
@@ -896,35 +974,35 @@
         <v>43453</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="7"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="7"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C35" s="7"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="7"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>31</v>
       </c>
@@ -933,49 +1011,49 @@
         <v>43453</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="7"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C39" s="7"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C40" s="7"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C41" s="7"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C42" s="7"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C43" s="7"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>32</v>
       </c>
@@ -984,42 +1062,42 @@
         <v>43454</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C45" s="7"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C46" s="7"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C47" s="7"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C48" s="7"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C49" s="7"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>33</v>
       </c>
@@ -1028,42 +1106,42 @@
         <v>43454</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C51" s="7"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C52" s="7"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C53" s="7"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C54" s="7"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C55" s="7"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>34</v>
       </c>
@@ -1072,45 +1150,164 @@
         <v>43454</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C57" s="7"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C58" s="7"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C59" s="7"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C60" s="7"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C61" s="7"/>
     </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" s="10"/>
+      <c r="C62" s="11"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="7">
+        <v>43455</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C64" s="7"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="B65" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" s="7"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66" s="7"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="13"/>
+      <c r="B67" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67" s="14"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="B68" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="7"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="7">
+        <v>43456</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="B70" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70" s="7"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+      <c r="B71" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" s="7"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+      <c r="B72" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72" s="7"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="7">
+        <v>43457</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="B74" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C74" s="7"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="B75" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C75" s="7"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+      <c r="B76" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C76" s="7"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+      <c r="B77" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C77" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A62:C62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Training Topics.xlsx
+++ b/Training Topics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\singirva\Documents\Personal\Trainings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EXT\FL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="105">
   <si>
     <t>About GIT</t>
   </si>
@@ -264,6 +264,99 @@
   </si>
   <si>
     <t>Triggers</t>
+  </si>
+  <si>
+    <t>REST Services &amp; Consuming the REST Services using Postman</t>
+  </si>
+  <si>
+    <t>REST Introduction</t>
+  </si>
+  <si>
+    <t>REST Vs SOAP</t>
+  </si>
+  <si>
+    <t>JSON Structure</t>
+  </si>
+  <si>
+    <t>Installaing POSTMAN</t>
+  </si>
+  <si>
+    <t>Consuming REST Services</t>
+  </si>
+  <si>
+    <t>POST, GET, PUT, DELETE methods</t>
+  </si>
+  <si>
+    <t>HTTP Response Codes</t>
+  </si>
+  <si>
+    <t>Demos</t>
+  </si>
+  <si>
+    <t>Java Basics, Collections and Java 8</t>
+  </si>
+  <si>
+    <t>Java Basics</t>
+  </si>
+  <si>
+    <t>OOPS concepts</t>
+  </si>
+  <si>
+    <t>Collections</t>
+  </si>
+  <si>
+    <t>Implements and Extends concepts</t>
+  </si>
+  <si>
+    <t>Threading and Synchronization concepts</t>
+  </si>
+  <si>
+    <t>Maps</t>
+  </si>
+  <si>
+    <t>Collections Demo</t>
+  </si>
+  <si>
+    <t>Maps &amp; Demo</t>
+  </si>
+  <si>
+    <t>Java 8</t>
+  </si>
+  <si>
+    <t>Object Oriented Vs Functional</t>
+  </si>
+  <si>
+    <t>Java 8 Concepts</t>
+  </si>
+  <si>
+    <t>Unix Commands</t>
+  </si>
+  <si>
+    <t>UNIX</t>
+  </si>
+  <si>
+    <t>Commands</t>
+  </si>
+  <si>
+    <t>Jenkins</t>
+  </si>
+  <si>
+    <t>Jenkins Introduction</t>
+  </si>
+  <si>
+    <t>Jenkins installation</t>
+  </si>
+  <si>
+    <t>Jenkins Basics</t>
+  </si>
+  <si>
+    <t>Jenkins Plugins</t>
+  </si>
+  <si>
+    <t>Configuring environments</t>
+  </si>
+  <si>
+    <t>Plugins required</t>
   </si>
 </sst>
 </file>
@@ -424,15 +517,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -442,6 +526,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -723,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,11 +841,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -959,11 +1052,11 @@
       <c r="C30" s="7"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -1186,11 +1279,11 @@
       <c r="C61" s="7"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="11"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="15"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
@@ -1223,15 +1316,15 @@
       <c r="C66" s="7"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="13"/>
-      <c r="B67" s="12" t="s">
+      <c r="A67" s="10"/>
+      <c r="B67" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C67" s="14"/>
+      <c r="C67" s="11"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C68" s="7"/>
@@ -1247,21 +1340,21 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="12" t="s">
         <v>66</v>
       </c>
       <c r="C70" s="7"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="12" t="s">
         <v>67</v>
       </c>
       <c r="C71" s="7"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="12" t="s">
         <v>68</v>
       </c>
       <c r="C72" s="7"/>
@@ -1272,42 +1365,309 @@
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="7">
-        <v>43457</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="12" t="s">
         <v>70</v>
       </c>
       <c r="C74" s="7"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
-      <c r="B75" s="15" t="s">
+      <c r="B75" s="12" t="s">
         <v>71</v>
       </c>
       <c r="C75" s="7"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
-      <c r="B76" s="15" t="s">
+      <c r="B76" s="12" t="s">
         <v>73</v>
       </c>
       <c r="C76" s="7"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
-      <c r="B77" s="15" t="s">
+      <c r="B77" s="12" t="s">
         <v>72</v>
       </c>
       <c r="C77" s="7"/>
     </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="15"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B79" s="3"/>
+      <c r="C79" s="7">
+        <v>43459</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="2"/>
+      <c r="B80" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C80" s="7"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="2"/>
+      <c r="B81" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C81" s="7"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="2"/>
+      <c r="B82" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C82" s="7"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="10"/>
+      <c r="B83" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C83" s="11"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B84" s="3"/>
+      <c r="C84" s="7">
+        <v>43460</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
+      <c r="B85" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C85" s="7"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="2"/>
+      <c r="B86" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C86" s="7"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="2"/>
+      <c r="B87" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C87" s="7"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="15"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B89" s="3"/>
+      <c r="C89" s="7">
+        <v>43461</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="2"/>
+      <c r="B90" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C90" s="7"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B91" s="4"/>
+      <c r="C91" s="7">
+        <v>43462</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="2"/>
+      <c r="B92" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C92" s="7"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="10"/>
+      <c r="B93" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C93" s="11"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="2"/>
+      <c r="B94" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C94" s="7"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B95" s="12"/>
+      <c r="C95" s="7">
+        <v>43463</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="2"/>
+      <c r="B96" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C96" s="7"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="2"/>
+      <c r="B97" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C97" s="7"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B98" s="3"/>
+      <c r="C98" s="7">
+        <v>43467</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="2"/>
+      <c r="B99" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C99" s="7"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="2"/>
+      <c r="B100" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C100" s="7"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B101" s="14"/>
+      <c r="C101" s="15"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B102" s="3"/>
+      <c r="C102" s="7">
+        <v>43468</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="2"/>
+      <c r="B103" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C103" s="7"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B104" s="14"/>
+      <c r="C104" s="15"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B105" s="4"/>
+      <c r="C105" s="7">
+        <v>43469</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="2"/>
+      <c r="B106" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C106" s="7"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="10"/>
+      <c r="B107" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C107" s="11"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="2"/>
+      <c r="B108" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C108" s="7"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B109" s="12"/>
+      <c r="C109" s="7">
+        <v>43472</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="2"/>
+      <c r="B110" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C110" s="7"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="2"/>
+      <c r="B111" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C111" s="7"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="2"/>
+      <c r="B112" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C112" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A104:C104"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A88:C88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
